--- a/MatchReverse.xlsx
+++ b/MatchReverse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2887A51-85EF-4658-AECB-D36F35C07A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576E1670-1284-4517-8C0A-0B1DAF7FABC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9799DBD7-AF83-4E51-B28B-A52BFB4FA021}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="P7:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,35 +497,63 @@
       <c r="P8">
         <v>7636</v>
       </c>
+      <c r="R8">
+        <f t="shared" ref="R8:R14" si="0">INDEX(P8:P22,MATCH(9.8888E+307,P8:P22,1),1)</f>
+        <v>4961</v>
+      </c>
     </row>
     <row r="9" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P9">
         <v>3557</v>
       </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>4961</v>
+      </c>
     </row>
     <row r="10" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P10">
         <v>4509</v>
       </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>4961</v>
+      </c>
     </row>
     <row r="11" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P11">
         <v>4838</v>
       </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>4961</v>
+      </c>
     </row>
     <row r="12" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P12">
         <v>6023</v>
       </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>4961</v>
+      </c>
     </row>
     <row r="13" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P13">
         <v>6270</v>
       </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>4961</v>
+      </c>
     </row>
     <row r="14" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P14">
         <v>2720</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>4961</v>
       </c>
     </row>
     <row r="15" spans="16:18" x14ac:dyDescent="0.3">
